--- a/Heuristicas/Resultado_Ensemble_smape_cenario_36.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_36.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaral\Documents\Faculdade\tcc\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290B506-84BC-45E1-B680-6FF5135D9644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="14625" yWindow="2295" windowWidth="3240" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,46 +687,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>35.382</v>
+        <v>35.381999999999998</v>
       </c>
       <c r="E2">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C3">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E3">
         <v>0.223</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -673,66 +735,66 @@
         <v>10.712</v>
       </c>
       <c r="E4">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C5">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>31.589</v>
+        <v>31.588999999999999</v>
       </c>
       <c r="E5">
         <v>2.11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C6">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D6">
-        <v>102.567</v>
+        <v>102.56699999999999</v>
       </c>
       <c r="E6">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>97.17100000000001</v>
+        <v>97.171000000000006</v>
       </c>
       <c r="E7">
-        <v>1.648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.6479999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -744,29 +806,29 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>174.086</v>
+        <v>174.08600000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -778,24 +840,24 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="C11">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>191.509</v>
+        <v>191.50899999999999</v>
       </c>
       <c r="E11">
         <v>2.145</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -803,7 +865,7 @@
         <v>0.121</v>
       </c>
       <c r="C12">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <v>216.066</v>
@@ -812,12 +874,12 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -826,27 +888,27 @@
         <v>11.526</v>
       </c>
       <c r="E13">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C14">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14">
-        <v>130.395</v>
+        <v>130.39500000000001</v>
       </c>
       <c r="E14">
-        <v>5.422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>5.4219999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -857,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>45.629</v>
+        <v>45.628999999999998</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -880,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -891,35 +953,35 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>31.642</v>
+        <v>31.641999999999999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C18">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
         <v>23.3</v>
       </c>
       <c r="E18">
-        <v>0.401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -928,15 +990,15 @@
         <v>80.259</v>
       </c>
       <c r="E19">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -945,44 +1007,44 @@
         <v>44.29</v>
       </c>
       <c r="E20">
-        <v>0.383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C21">
         <v>0.01</v>
       </c>
       <c r="D21">
-        <v>145.883</v>
+        <v>145.88300000000001</v>
       </c>
       <c r="E21">
-        <v>9.368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>9.3680000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>176.088</v>
+        <v>176.08799999999999</v>
       </c>
       <c r="E22">
         <v>0.109</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -990,92 +1052,92 @@
         <v>0.18</v>
       </c>
       <c r="C23">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D23">
-        <v>178.038</v>
+        <v>178.03800000000001</v>
       </c>
       <c r="E23">
-        <v>7.251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>7.2510000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D24">
-        <v>43.728</v>
+        <v>43.728000000000002</v>
       </c>
       <c r="E24">
-        <v>0.454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C25">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D25">
-        <v>86.955</v>
+        <v>86.954999999999998</v>
       </c>
       <c r="E25">
-        <v>4.045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>4.0449999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C26">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D26">
-        <v>21.636</v>
+        <v>21.635999999999999</v>
       </c>
       <c r="E26">
-        <v>0.801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>46.226</v>
+        <v>46.225999999999999</v>
       </c>
       <c r="E27">
         <v>0.254</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C28">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D28">
         <v>75.98</v>
@@ -1084,12 +1146,12 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1101,32 +1163,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C30">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D30">
-        <v>25.133</v>
+        <v>25.132999999999999</v>
       </c>
       <c r="E30">
-        <v>0.741</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C31">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D31">
         <v>46.375</v>
@@ -1135,7 +1197,7 @@
         <v>1.873</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1143,50 +1205,50 @@
         <v>0.16</v>
       </c>
       <c r="C32">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D32">
-        <v>358.683</v>
+        <v>358.68299999999999</v>
       </c>
       <c r="E32">
-        <v>5.349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>5.3490000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D33">
-        <v>40.661</v>
+        <v>40.661000000000001</v>
       </c>
       <c r="E33">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C34">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D34">
-        <v>409.972</v>
+        <v>409.97199999999998</v>
       </c>
       <c r="E34">
-        <v>2.594</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1194,16 +1256,16 @@
         <v>0.08</v>
       </c>
       <c r="C35">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D35">
         <v>87.497</v>
       </c>
       <c r="E35">
-        <v>2.132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>2.1320000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1211,24 +1273,24 @@
         <v>0.109</v>
       </c>
       <c r="C36">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D36">
         <v>164.654</v>
       </c>
       <c r="E36">
-        <v>7.105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>7.1050000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C37">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D37">
         <v>9.43</v>
@@ -1237,7 +1299,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1248,47 +1310,47 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>272.177</v>
+        <v>272.17700000000002</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C39">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D39">
-        <v>41.742</v>
+        <v>41.741999999999997</v>
       </c>
       <c r="E39">
         <v>4.351</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C40">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D40">
-        <v>8.689</v>
+        <v>8.6890000000000001</v>
       </c>
       <c r="E40">
-        <v>0.411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1296,33 +1358,33 @@
         <v>0.215</v>
       </c>
       <c r="C41">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D41">
-        <v>350.251</v>
+        <v>350.25099999999998</v>
       </c>
       <c r="E41">
-        <v>16.992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>16.992000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>425.188</v>
+        <v>425.18799999999999</v>
       </c>
       <c r="E42">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1330,16 +1392,16 @@
         <v>0.125</v>
       </c>
       <c r="C43">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>76.179</v>
+        <v>76.179000000000002</v>
       </c>
       <c r="E43">
         <v>4.274</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1350,30 +1412,30 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>328.206</v>
+        <v>328.20600000000002</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C45">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D45">
         <v>0.04</v>
       </c>
       <c r="E45">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1381,38 +1443,38 @@
         <v>0.159</v>
       </c>
       <c r="C46">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D46">
         <v>104.703</v>
       </c>
       <c r="E46">
-        <v>0.519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C47">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D47">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E47">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1424,75 +1486,75 @@
         <v>889.05</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C49">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D49">
-        <v>694975.982</v>
+        <v>694975.98199999996</v>
       </c>
       <c r="E49">
-        <v>38574.751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>38574.750999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C50">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D50">
         <v>135.108</v>
       </c>
       <c r="E50">
-        <v>22.858</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>22.858000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>11513534.178</v>
+        <v>11513534.177999999</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>11170785.03</v>
+        <v>11170785.029999999</v>
       </c>
       <c r="E52">
-        <v>201397.724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>201397.72399999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1503,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>46.402</v>
+        <v>46.402000000000001</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1517,135 +1579,135 @@
         <v>0.42</v>
       </c>
       <c r="C54">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D54">
-        <v>2514.256</v>
+        <v>2514.2559999999999</v>
       </c>
       <c r="E54">
         <v>685.952</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C55">
         <v>0.107</v>
       </c>
       <c r="D55">
-        <v>266.516</v>
+        <v>266.51600000000002</v>
       </c>
       <c r="E55">
-        <v>20.075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>20.074999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="C56">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D56">
-        <v>5251.443</v>
+        <v>5251.4430000000002</v>
       </c>
       <c r="E56">
         <v>495.685</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>73.172</v>
+        <v>73.171999999999997</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C58">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D58">
         <v>10196.163</v>
       </c>
       <c r="E58">
-        <v>2287.332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>2287.3319999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C59">
         <v>0.01</v>
       </c>
       <c r="D59">
-        <v>1404.583</v>
+        <v>1404.5830000000001</v>
       </c>
       <c r="E59">
-        <v>51.263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>51.262999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.507</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="C60">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D60">
-        <v>151.254</v>
+        <v>151.25399999999999</v>
       </c>
       <c r="E60">
-        <v>7.297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>7.2969999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.591</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C61">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D61">
         <v>284.892</v>
       </c>
       <c r="E61">
-        <v>73.614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>73.614000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1662,12 +1724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C63">
         <v>0.01</v>
@@ -1676,177 +1738,183 @@
         <v>1118.075</v>
       </c>
       <c r="E63">
-        <v>84.054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>84.054000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C64">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D64">
-        <v>8378.299000000001</v>
+        <v>8378.2990000000009</v>
       </c>
       <c r="E64">
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C65">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D65">
-        <v>18603.599</v>
+        <v>18603.598999999998</v>
       </c>
       <c r="E65">
         <v>217.941</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="C66">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D66">
         <v>5437.39</v>
       </c>
       <c r="E66">
-        <v>1180.612</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>1180.6120000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C67">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D67">
-        <v>7752.104</v>
+        <v>7752.1040000000003</v>
       </c>
       <c r="E67">
         <v>119.979</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C68">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D68">
-        <v>11.627</v>
+        <v>11.627000000000001</v>
       </c>
       <c r="E68">
-        <v>0.302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C69">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D69">
-        <v>8323152.58</v>
+        <v>8323152.5800000001</v>
       </c>
       <c r="E69">
-        <v>1314618.242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>1314618.2420000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>645766.297</v>
+        <v>645766.29700000002</v>
       </c>
       <c r="E70">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C71">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D71">
-        <v>5235652.263</v>
+        <v>5235652.2630000003</v>
       </c>
       <c r="E71">
-        <v>87623.35799999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>87623.357999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C72">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D72">
-        <v>9.752000000000001</v>
+        <v>9.7520000000000007</v>
       </c>
       <c r="E72">
-        <v>0.347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>31.812</v>
+        <v>31.812000000000001</v>
       </c>
       <c r="E73">
         <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.15465277777777778</v>
       </c>
     </row>
   </sheetData>
